--- a/projects/shift_tracker/shift_tracker.xlsx
+++ b/projects/shift_tracker/shift_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my_toolbox\projects\career\portfolio_main\projects\shift_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770B3A7B-A075-49E9-9593-B30281F3D63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295646C-4D84-4763-B7E9-CA743A90988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{317E1021-94FD-4586-B48D-C39BFB1E8F64}"/>
   </bookViews>
@@ -2747,7 +2747,7 @@
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
